--- a/examples/irao-data.xlsx
+++ b/examples/irao-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\informatics-research-artifacts-ontology\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D06D8-2743-4A4B-95F8-3D3142BA9058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DADD05-773D-44CC-AE49-EFD01D64FDBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD94D244-6AC2-44B8-B0C9-3979CA816C19}"/>
   </bookViews>
@@ -63,15 +63,6 @@
     <t>publication name</t>
   </si>
   <si>
-    <t>Marek Dudas</t>
-  </si>
-  <si>
-    <t>Jindrich Mynarz</t>
-  </si>
-  <si>
-    <t>University of Ecomics, Prague</t>
-  </si>
-  <si>
     <t>release</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>92b55a1a</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
     <t>3230c840</t>
   </si>
   <si>
@@ -259,6 +247,18 @@
   </si>
   <si>
     <t>38947a2e</t>
+  </si>
+  <si>
+    <t>Jindřich Mynarz</t>
+  </si>
+  <si>
+    <t>University of Economics, Prague</t>
+  </si>
+  <si>
+    <t>VersionControl</t>
+  </si>
+  <si>
+    <t>Marek Dudáš</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -686,284 +686,284 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
